--- a/guide41_forum.xlsx
+++ b/guide41_forum.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\guide_dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CCE45F-334A-4911-9EA9-008C5CC10247}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC754626-394E-4F7E-85D7-DD70178F55CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="p1" sheetId="15" r:id="rId1"/>
+    <sheet name="index" sheetId="16" r:id="rId1"/>
+    <sheet name="p1" sheetId="15" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>header1</t>
   </si>
@@ -342,12 +343,37 @@
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>広大moodle 教職員向けマニュアル _フォーラムの利用</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒロダイ </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キョウショクイン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;フォーラムの利用&lt;/h3&gt;&lt;br&gt;
+フォーラムは学生同士の議論や教員からの連絡、フィードバック等幅広く活用することができます。
+moodle には 5 種類のフォーラムが用意されています。用途に応じてご利用ください。&lt;br &gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +449,13 @@
       <name val="Calibri"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -446,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -479,6 +512,13 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -793,11 +833,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEFB37C-0482-44C4-9722-7D4583AF5C72}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+    </row>
+    <row r="5" spans="1:2" ht="54">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="67.5">
+      <c r="B6" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DD84A2-8553-4736-8CDC-02E4220E2CE5}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/guide41_forum.xlsx
+++ b/guide41_forum.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC754626-394E-4F7E-85D7-DD70178F55CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF52A70E-BD01-4C7F-AB7B-3E436807CBA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="16" r:id="rId1"/>
     <sheet name="p1" sheetId="15" r:id="rId2"/>
+    <sheet name="p2" sheetId="17" r:id="rId3"/>
+    <sheet name="p3" sheetId="18" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>header1</t>
   </si>
@@ -58,10 +60,6 @@
     <t>フォーラムの設定をします</t>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="Posting"&gt;&lt;/a&gt;フォーラムへの投稿&lt;/h3&gt;
-ここでは、「一般的利用の標準フォーラム」を例に投稿操作を説明します。</t>
-  </si>
-  <si>
     <t>フォーラムをクリックします</t>
   </si>
   <si>
@@ -75,14 +73,6 @@
   </si>
   <si>
     <t>［フォーラムに投稿する］をクリックします</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="Subscribing"&gt;&lt;/a&gt;フォーラムの購読&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>フォーラムは学生同士の議論や教員からの連絡、フィードバック等幅広く活用することができます。
-moodle には 5 種類のフォーラムが用意されています。用途に応じてご利用ください。</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>フォーラム名：課題の名称を入力します。
@@ -120,10 +110,6 @@
   </si>
   <si>
     <t>chartn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="Create"&gt;&lt;/a&gt;フォーラムの作成&lt;/h3&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -366,6 +352,19 @@
     <t>&lt;h3&gt;フォーラムの利用&lt;/h3&gt;&lt;br&gt;
 フォーラムは学生同士の議論や教員からの連絡、フィードバック等幅広く活用することができます。
 moodle には 5 種類のフォーラムが用意されています。用途に応じてご利用ください。&lt;br &gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォーラムの購読</t>
+  </si>
+  <si>
+    <t>フォーラムの作成</t>
+  </si>
+  <si>
+    <t>フォーラムへの投稿</t>
+  </si>
+  <si>
+    <t>ここでは、「一般的利用の標準フォーラム」を例に投稿操作を説明します。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -859,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -867,7 +866,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -877,12 +876,12 @@
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="67.5">
       <c r="B6" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -897,10 +896,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DD84A2-8553-4736-8CDC-02E4220E2CE5}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -923,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="8"/>
@@ -943,7 +942,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -954,210 +953,349 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="40.5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:4" ht="18.75">
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D6" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75">
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="18.75">
       <c r="B8" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="67.5">
+      <c r="B10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="96.75">
+      <c r="B11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" ht="135">
+      <c r="B12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27">
+      <c r="B13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="59.25">
+      <c r="B14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75">
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.75">
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="4:4" ht="18.75">
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="4:4" ht="18.75">
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="4:4" ht="18.75">
+      <c r="D19" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B7E422-6860-482E-8567-1DF9ED7804B4}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="90" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75">
+      <c r="B6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75">
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75">
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="C11" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="67.5">
-      <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75">
+      <c r="B12" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="96.75">
-      <c r="B13" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75">
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" ht="18.75">
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75">
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.75">
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="4:4" ht="18.75">
+      <c r="D17" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA82993-DCE4-4748-8B2A-DEA670A8079C}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="90" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" ht="135">
-      <c r="B14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="27">
-      <c r="B15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="59.25">
-      <c r="B16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="2:4" ht="27">
-      <c r="B17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="2:4" ht="18.75">
-      <c r="B18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="18.75">
-      <c r="B19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="18.75">
-      <c r="B20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="70.5">
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="18.75">
-      <c r="B21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="18.75">
-      <c r="C22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="18.75">
-      <c r="B23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="2:4" ht="70.5">
-      <c r="B25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="18.75">
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="2:4" ht="18.75">
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="2:4" ht="18.75">
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="2:4" ht="18.75">
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="2:4" ht="18.75">
-      <c r="D30" s="10"/>
+    <row r="7" spans="1:4" ht="18.75">
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" ht="18.75">
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75">
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.75">
+      <c r="D11" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1167,24 +1305,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1433,6 +1553,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1443,17 +1581,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1472,6 +1599,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>

--- a/guide41_forum.xlsx
+++ b/guide41_forum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF52A70E-BD01-4C7F-AB7B-3E436807CBA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CB44B7-BD82-4B0F-9229-DA96585BB2A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7665" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="16" r:id="rId1"/>
@@ -835,7 +835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEFB37C-0482-44C4-9722-7D4583AF5C72}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -896,9 +896,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DD84A2-8553-4736-8CDC-02E4220E2CE5}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -947,99 +947,102 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="18.75">
       <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="18.75">
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>18</v>
-      </c>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="18.75">
       <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
       <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>19</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="B9" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="67.5">
-      <c r="B10" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75">
+      <c r="B10" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="67.5">
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="96.75">
-      <c r="B11" s="7" t="s">
+    <row r="12" spans="1:4" ht="96.75">
+      <c r="B12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" ht="135">
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" ht="135">
+      <c r="B13" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="27">
-      <c r="B13" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27">
+      <c r="B14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="59.25">
-      <c r="B14" s="7" t="s">
+    <row r="15" spans="1:4" ht="59.25">
+      <c r="B15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" ht="18.75">
+      <c r="C15" s="9"/>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" ht="18.75">
@@ -1053,6 +1056,9 @@
     </row>
     <row r="19" spans="4:4" ht="18.75">
       <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="4:4" ht="18.75">
+      <c r="D20" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1063,158 +1069,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B7E422-6860-482E-8567-1DF9ED7804B4}">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="90" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="18.75">
-      <c r="B6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="18.75">
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75">
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75">
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75">
-      <c r="B10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75">
-      <c r="C11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.75">
-      <c r="B12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.75">
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" ht="18.75">
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" ht="18.75">
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" ht="18.75">
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="4:4" ht="18.75">
-      <c r="D17" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA82993-DCE4-4748-8B2A-DEA670A8079C}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
@@ -1240,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="8"/>
@@ -1265,25 +1120,185 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="18.75">
       <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="70.5">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75">
+      <c r="B7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" ht="18.75">
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75">
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75">
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75">
+      <c r="C12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75">
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75">
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75">
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.75">
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="4:4" ht="18.75">
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="4:4" ht="18.75">
+      <c r="D18" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA82993-DCE4-4748-8B2A-DEA670A8079C}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="90" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.75">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="70.5">
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75">
-      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="18.75">
       <c r="D8" s="10"/>
@@ -1296,6 +1311,9 @@
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.75">
+      <c r="D12" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1305,6 +1323,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1553,34 +1598,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1597,23 +1634,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_forum.xlsx
+++ b/guide41_forum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CB44B7-BD82-4B0F-9229-DA96585BB2A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13321F52-B539-4B49-8067-79DAB2BFCD8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7665" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="11175" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="16" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>header1</t>
   </si>
@@ -57,56 +57,7 @@
     <t>ダイアログから［フォーラム］を選択します</t>
   </si>
   <si>
-    <t>フォーラムの設定をします</t>
-  </si>
-  <si>
-    <t>フォーラムをクリックします</t>
-  </si>
-  <si>
-    <t>［新しいディスカッショントピックを追加する］をクリックします</t>
-  </si>
-  <si>
     <t>[件名]、［メッセージ］を入力します</t>
-  </si>
-  <si>
-    <t>ファイルを添付したい場合は［高度］をクリックして、ファイルを添付します</t>
-  </si>
-  <si>
-    <t>［フォーラムに投稿する］をクリックします</t>
-  </si>
-  <si>
-    <t>フォーラム名：課題の名称を入力します。
-説明：課題の概要や実施手順などを入力します。
-コースページに説明を表示する：［説明］に入力した内容を、コースに表示させる場合は、チェックします。
-フォーラムタイプ：フォーラムタイプを指定します。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>フォーラムを購読するか、しないかを選択できます。
-「購読する」を選択すると、フォーラムに投稿が追加された場合、メールで通知が届きます。メール通知が必要ない場合は購読マークをグレーにします。
-ディスカッションの左の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>☆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>マークをクリックすると星の色が変わります。星がついているディスカッションは上位に表示されます。</t>
-    </r>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>chartn</t>
@@ -151,175 +102,6 @@
   </si>
   <si>
     <t>forum13.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">添付および文字カウント
-最大添付ファイルサイズ：
-学生が添付することができるファイルの最大サイズを制限します。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t>※</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>サイトの制限値およびコースの制限値を超える設定はできません。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>最大添付ファイル数：学生が添付することができるファイルの最大</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ファイル数を制限します。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>総単語数を表示する：それぞれの投稿の総単語数を表示するかどうか指定します。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>購読および未読管理
-「購読モード」を指定します。「購読」とは、フォーラムに投稿された内容をメールで通知することです。 コース に登録されているすべてのユーザ（教員、学生）が対象となります。
-購読モード
-任意購読：ユーザがメールを受信するか任意で選択できます。
-強制購読：すべてのユーザに通知が届きます。
-自動購読：すべてのユーザに通知が届きます。ユーザは購読を解除することができます。
-購読停止：すべてのユーザに通知をしません。
-未読管理：［任意］を選択すると、ユーザは未読の投稿が確認できます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ディスカッションロッキング
-期間を決めてディスカッションをロックすることができます 。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ブロッキングまでの投稿閾値
-学生が指定された時間内に一定数以上の記事を投稿した場合、警告を表示したり投稿を拒否することができます。 1日～ 1週間まで設定可能です。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t>※</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>その他の項目は「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 7.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>課題を作成する」と同じですので、そちらを参照してください。</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -331,9 +113,6 @@
   </si>
   <si>
     <t>index</t>
-  </si>
-  <si>
-    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
   </si>
   <si>
     <t>広大moodle 教職員向けマニュアル _フォーラムの利用</t>
@@ -367,12 +146,917 @@
     <t>ここでは、「一般的利用の標準フォーラム」を例に投稿操作を説明します。</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>フォーラム名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">課題の名称を入力します
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>説明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">課題の概要や実施手順などを入力します
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>［説明］に入力した内容をコースに表示させる場合は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[コースページに説明を表示する]に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>チェックします</t>
+    </r>
+    <rPh sb="79" eb="81">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[フォーラムタイプ]を選択します</t>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>添付および文字カウント</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]の[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>最大添付ファイルサイズ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]/[最大添付ファイル数]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">で学生が添付することができるファイルの最大サイズ、ファイル数を制限します
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">サイトの制限値およびコースの制限値を超える設定はできません
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>また、[総単語数を表示する]でそれぞれの投稿の総単語数を表示するかどうか指定します</t>
+    </r>
+    <rPh sb="37" eb="38">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>購読および未読管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">「購読モード」を指定します
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「購読」とは、フォーラムに投稿された内容をメールで通知することです。 コース に登録されているすべてのユーザ（教員、学生）が対象となります。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[購読モード]の選択肢の説明は以下のとおりです</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+・任意購読：ユーザがメールを受信するか任意で選択できます
+・強制購読：すべてのユーザに通知が届きます
+・自動購読：すべてのユーザに通知が届き、ユーザは購読を解除することができます
+・購読停止：すべてのユーザに通知をしません
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>また、[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>未読管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>［任意］を選択すると、ユーザは未読の投稿が確認できます</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>コウドク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ディスカッションロッキング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]では、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>期間を決めてディスカッションをロックすることができます</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ブロッキングまでの投稿閾値</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]では、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">学生が指定された時間内に一定数以上の記事を投稿した場合、警告を表示したり投稿を拒否することができます
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>その他の項目は「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">課題を作成する」と同じですので、そちらを参照してください
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>■</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>マニュアルの目次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ページ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+https://support.vle.hiroshima-u.ac.jp/draft:guide:top2</t>
+    </r>
+    <rPh sb="117" eb="119">
+      <t>モクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[保存してコースに戻る]をクリックします</t>
+    <rPh sb="1" eb="3">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォーラムを購読するか、しないかを選択できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>「購読する」を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ONにする</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と、フォーラムに投稿が追加された場合、メールで通知が届きます
+メール通知が必要ない場合は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>購読する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>OFFにします</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+また、特に注目しているディスカッションがある場合に、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>☆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>マークをクリックし、マークします</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>クリックすると星の色が変わります
+星がついているディスカッションは上位に表示されます</t>
+    </r>
+    <rPh sb="75" eb="76">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>チュウモク</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>フォーラム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をクリックします</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>[ディスカッショントピックを追加する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をクリックします</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>フォーラムに投稿する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をクリックします</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ファイルを添付したい場合は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>高度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をクリックして、ファイルを添付します</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,6 +1139,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -478,7 +1169,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -518,6 +1209,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEFB37C-0482-44C4-9722-7D4583AF5C72}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -858,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -866,7 +1563,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -876,12 +1573,12 @@
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="67.5">
       <c r="B6" s="12" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -896,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DD84A2-8553-4736-8CDC-02E4220E2CE5}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -922,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="8"/>
@@ -942,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -964,10 +1661,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
@@ -981,89 +1678,99 @@
         <v>8</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75">
-      <c r="B10" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="83.25">
+      <c r="B10" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="67.5">
-      <c r="B11" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75">
+      <c r="B11" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="96.75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="84.75">
       <c r="B12" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" ht="135">
+    <row r="13" spans="1:4" ht="40.5">
       <c r="B13" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="94.5">
       <c r="B14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="59.25">
+        <v>36</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75">
       <c r="B15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" ht="18.75">
+        <v>37</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="89.25">
+      <c r="B16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="9"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="4:4" ht="18.75">
+    <row r="17" spans="2:4" ht="18.75">
+      <c r="B17" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="4:4" ht="18.75">
+    <row r="18" spans="2:4" ht="18.75">
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="4:4" ht="18.75">
+    <row r="19" spans="2:4" ht="18.75">
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="4:4" ht="18.75">
+    <row r="20" spans="2:4" ht="18.75">
       <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="2:4" ht="18.75">
+      <c r="D21" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1072,7 +1779,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1095,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="8"/>
@@ -1115,14 +1822,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="18.75">
+    <row r="5" spans="1:4">
       <c r="A5" s="3"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
@@ -1132,74 +1841,73 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="18.75">
-      <c r="B7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="10"/>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="18.75">
       <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="B9" s="6" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="6" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75">
       <c r="C12" s="9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75">
       <c r="B13" s="6" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75">
@@ -1226,10 +1934,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA82993-DCE4-4748-8B2A-DEA670A8079C}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1252,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="8"/>
@@ -1272,36 +1980,41 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="18.75">
       <c r="A5" s="3"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="18.75">
       <c r="A6" s="3"/>
-      <c r="B6" s="5"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="70.5">
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75">
-      <c r="D8" s="10"/>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="97.5">
+      <c r="B8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="D9" s="10"/>
@@ -1314,42 +2027,18 @@
     </row>
     <row r="12" spans="1:4" ht="18.75">
       <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.75">
+      <c r="D13" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1598,10 +2287,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1618,20 +2345,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>